--- a/src/Server.UI/Files/Templates/OutcomeQualityReviewResults.xlsx
+++ b/src/Server.UI/Files/Templates/OutcomeQualityReviewResults.xlsx
@@ -92,7 +92,7 @@
     <t xml:space="preserve">Compliant (Y/N)</t>
   </si>
   <si>
-    <t xml:space="preserve">Feedback/Reccomendations </t>
+    <t xml:space="preserve">Feedback/Recommendations </t>
   </si>
   <si>
     <t xml:space="preserve">Dates</t>
@@ -260,44 +260,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -384,9 +388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101520</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>47160</xdr:rowOff>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -400,7 +404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8192520" y="0"/>
-          <a:ext cx="1305000" cy="809280"/>
+          <a:ext cx="1304640" cy="808920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -422,9 +426,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1647360</xdr:colOff>
+      <xdr:colOff>1647000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -438,7 +442,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="101520" y="101520"/>
-          <a:ext cx="1545840" cy="738360"/>
+          <a:ext cx="1545480" cy="738000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -633,391 +637,391 @@
   </sheetPr>
   <dimension ref="A7:G49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="32.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="37.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="32.14"/>
   </cols>
   <sheetData>
     <row r="7" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="8"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="8"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="8"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
-      <c r="B47" s="8"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="8"/>
-      <c r="B48" s="8"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1053,207 +1057,207 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="n">
+      <c r="A2" s="10" t="n">
         <v>45658</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="n">
+      <c r="A3" s="10" t="n">
         <v>45689</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="n">
+      <c r="A4" s="10" t="n">
         <v>45717</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="n">
+      <c r="A5" s="10" t="n">
         <v>45748</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="n">
+      <c r="A6" s="10" t="n">
         <v>45778</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="n">
+      <c r="A7" s="10" t="n">
         <v>45809</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="n">
+      <c r="A8" s="10" t="n">
         <v>45839</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="n">
+      <c r="A9" s="10" t="n">
         <v>45870</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="n">
+      <c r="A10" s="10" t="n">
         <v>45901</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="n">
+      <c r="A11" s="10" t="n">
         <v>45931</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="n">
+      <c r="A12" s="10" t="n">
         <v>45962</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="n">
+      <c r="A13" s="10" t="n">
         <v>45992</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="n">
+      <c r="A14" s="10" t="n">
         <v>46023</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="n">
+      <c r="A15" s="10" t="n">
         <v>46054</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="n">
+      <c r="A16" s="10" t="n">
         <v>46082</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="n">
+      <c r="A17" s="10" t="n">
         <v>46113</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="n">
+      <c r="A18" s="10" t="n">
         <v>46143</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="n">
+      <c r="A19" s="10" t="n">
         <v>46174</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="9" t="n">
+      <c r="A20" s="10" t="n">
         <v>46204</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="9" t="n">
+      <c r="A21" s="10" t="n">
         <v>46235</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="9" t="n">
+      <c r="A22" s="10" t="n">
         <v>46266</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="9" t="n">
+      <c r="A23" s="10" t="n">
         <v>46296</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="9" t="n">
+      <c r="A24" s="10" t="n">
         <v>46327</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="9" t="n">
+      <c r="A25" s="10" t="n">
         <v>46357</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="9" t="n">
+      <c r="A26" s="10" t="n">
         <v>46388</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="9" t="n">
+      <c r="A27" s="10" t="n">
         <v>46419</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="9" t="n">
+      <c r="A28" s="10" t="n">
         <v>46447</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="9" t="n">
+      <c r="A29" s="10" t="n">
         <v>46478</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="9" t="n">
+      <c r="A30" s="10" t="n">
         <v>46508</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="9" t="n">
+      <c r="A31" s="10" t="n">
         <v>46539</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="9" t="n">
+      <c r="A32" s="10" t="n">
         <v>46569</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="9" t="n">
+      <c r="A33" s="10" t="n">
         <v>46600</v>
       </c>
     </row>
